--- a/project_implementation/csvs/50m good for uni b/uni_b_50m_k=5_filtered_init_loc/err.xlsx
+++ b/project_implementation/csvs/50m good for uni b/uni_b_50m_k=5_filtered_init_loc/err.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mashk\MyFiles\Semester 8\FYP\code\project_implementation\csvs\50m good for uni b\uni_b_50m_k=5_filtered_init_loc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CF3775-432D-4DE3-973D-0375A65FDB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1787FAA2-ACCA-4C9A-AC31-935E259FE972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3430,10 +3430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B855"/>
+  <dimension ref="A1:F864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129"/>
+    <sheetView tabSelected="1" topLeftCell="A840" workbookViewId="0">
+      <selection activeCell="C865" sqref="C865"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10222,7 +10222,7 @@
         <v>4.8297398813625998</v>
       </c>
     </row>
-    <row r="849" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
         <v>848</v>
       </c>
@@ -10230,7 +10230,7 @@
         <v>6.7190149991867303</v>
       </c>
     </row>
-    <row r="850" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
         <v>849</v>
       </c>
@@ -10238,7 +10238,7 @@
         <v>93.744915709626099</v>
       </c>
     </row>
-    <row r="851" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
         <v>850</v>
       </c>
@@ -10246,7 +10246,7 @@
         <v>4.8683430986076601</v>
       </c>
     </row>
-    <row r="852" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
         <v>851</v>
       </c>
@@ -10254,10 +10254,240 @@
         <v>6.0562568040822997</v>
       </c>
     </row>
-    <row r="855" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A855">
+        <v>1</v>
+      </c>
       <c r="B855">
+        <f>COUNTIF(B1:B852,"&lt;=1")</f>
+        <v>46</v>
+      </c>
+      <c r="C855">
+        <v>852</v>
+      </c>
+      <c r="D855">
+        <f>B855*100/C855</f>
+        <v>5.39906103286385</v>
+      </c>
+      <c r="E855">
+        <f>COUNTIF(B1:B852,"&lt;=1")*100/COUNT(B1:B852)</f>
+        <v>5.39906103286385</v>
+      </c>
+      <c r="F855">
+        <f>ROUND(D855,2)</f>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="856" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A856">
+        <v>2</v>
+      </c>
+      <c r="B856">
+        <f>COUNTIF(B1:B852,"&lt;=2")</f>
+        <v>109</v>
+      </c>
+      <c r="C856">
+        <v>852</v>
+      </c>
+      <c r="D856">
+        <f t="shared" ref="D856:D864" si="0">B856*100/C856</f>
+        <v>12.793427230046948</v>
+      </c>
+      <c r="E856">
+        <f>COUNTIF(B1:B852,"&lt;=2")*100/COUNT(B1:B852)</f>
+        <v>12.793427230046948</v>
+      </c>
+      <c r="F856">
+        <f t="shared" ref="F856:F864" si="1">ROUND(D856,2)</f>
+        <v>12.79</v>
+      </c>
+    </row>
+    <row r="857" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A857">
+        <v>4</v>
+      </c>
+      <c r="B857">
+        <f>COUNTIF(B1:B852,"&lt;=4")</f>
+        <v>221</v>
+      </c>
+      <c r="C857">
+        <v>852</v>
+      </c>
+      <c r="D857">
+        <f t="shared" si="0"/>
+        <v>25.938967136150236</v>
+      </c>
+      <c r="E857">
+        <f>COUNTIF(B1:B852,"&lt;=4")*100/COUNT(B1:B852)</f>
+        <v>25.938967136150236</v>
+      </c>
+      <c r="F857">
+        <f t="shared" si="1"/>
+        <v>25.94</v>
+      </c>
+    </row>
+    <row r="858" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A858">
+        <v>6</v>
+      </c>
+      <c r="B858">
+        <f>COUNTIF(B1:B852,"&lt;=6")</f>
+        <v>324</v>
+      </c>
+      <c r="C858">
+        <v>852</v>
+      </c>
+      <c r="D858">
+        <f t="shared" si="0"/>
+        <v>38.028169014084504</v>
+      </c>
+      <c r="E858">
+        <f>COUNTIF(B1:B852,"&lt;=6")*100/COUNT(B1:B852)</f>
+        <v>38.028169014084504</v>
+      </c>
+      <c r="F858">
+        <f t="shared" si="1"/>
+        <v>38.03</v>
+      </c>
+    </row>
+    <row r="859" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A859">
+        <v>8</v>
+      </c>
+      <c r="B859">
+        <f>COUNTIF(B1:B852,"&lt;=8")</f>
+        <v>401</v>
+      </c>
+      <c r="C859">
+        <v>852</v>
+      </c>
+      <c r="D859">
+        <f t="shared" si="0"/>
+        <v>47.06572769953052</v>
+      </c>
+      <c r="E859">
+        <f>COUNTIF(B1:B852,"&lt;=8")*100/COUNT(B1:B852)</f>
+        <v>47.06572769953052</v>
+      </c>
+      <c r="F859">
+        <f t="shared" si="1"/>
+        <v>47.07</v>
+      </c>
+    </row>
+    <row r="860" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A860">
+        <v>10</v>
+      </c>
+      <c r="B860">
+        <f>COUNTIF(B1:B852,"&lt;10")</f>
+        <v>453</v>
+      </c>
+      <c r="C860">
+        <v>852</v>
+      </c>
+      <c r="D860">
+        <f t="shared" si="0"/>
+        <v>53.16901408450704</v>
+      </c>
+      <c r="E860">
+        <f>COUNTIF(B1:B852,"&lt;=10")*100/COUNT(B1:B852)</f>
+        <v>53.16901408450704</v>
+      </c>
+      <c r="F860">
+        <f t="shared" si="1"/>
+        <v>53.17</v>
+      </c>
+    </row>
+    <row r="861" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A861">
+        <v>12</v>
+      </c>
+      <c r="B861">
+        <f>COUNTIF(B1:B852,"&lt;=12")</f>
+        <v>488</v>
+      </c>
+      <c r="C861">
+        <v>852</v>
+      </c>
+      <c r="D861">
+        <f t="shared" si="0"/>
+        <v>57.27699530516432</v>
+      </c>
+      <c r="E861">
+        <f>COUNTIF(B1:B852,"&lt;=12")*100/COUNT(B1:B852)</f>
+        <v>57.27699530516432</v>
+      </c>
+      <c r="F861">
+        <f t="shared" si="1"/>
+        <v>57.28</v>
+      </c>
+    </row>
+    <row r="862" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A862">
+        <v>15</v>
+      </c>
+      <c r="B862">
+        <f>COUNTIF(B1:B852,"&lt;=15")</f>
+        <v>533</v>
+      </c>
+      <c r="C862">
+        <v>852</v>
+      </c>
+      <c r="D862">
+        <f t="shared" si="0"/>
+        <v>62.558685446009392</v>
+      </c>
+      <c r="E862">
         <f>COUNTIF(B1:B852,"&lt;=15")*100/COUNT(B1:B852)</f>
         <v>62.558685446009392</v>
+      </c>
+      <c r="F862">
+        <f t="shared" si="1"/>
+        <v>62.56</v>
+      </c>
+    </row>
+    <row r="863" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A863">
+        <v>17</v>
+      </c>
+      <c r="B863">
+        <f>COUNTIF(B1:B852,"&lt;=17")</f>
+        <v>551</v>
+      </c>
+      <c r="C863">
+        <v>852</v>
+      </c>
+      <c r="D863">
+        <f t="shared" si="0"/>
+        <v>64.671361502347423</v>
+      </c>
+      <c r="E863">
+        <f>COUNTIF(B1:B852,"&lt;=17")*100/COUNT(B1:B852)</f>
+        <v>64.671361502347423</v>
+      </c>
+      <c r="F863">
+        <f t="shared" si="1"/>
+        <v>64.67</v>
+      </c>
+    </row>
+    <row r="864" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A864">
+        <v>20</v>
+      </c>
+      <c r="B864">
+        <f>COUNTIF(B1:B852,"&lt;=20")</f>
+        <v>575</v>
+      </c>
+      <c r="C864">
+        <v>852</v>
+      </c>
+      <c r="D864">
+        <f t="shared" si="0"/>
+        <v>67.488262910798127</v>
+      </c>
+      <c r="F864">
+        <f t="shared" si="1"/>
+        <v>67.489999999999995</v>
       </c>
     </row>
   </sheetData>
